--- a/시사점 과정리스트(231011)_차시_checked.xlsx
+++ b/시사점 과정리스트(231011)_차시_checked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sisa_macro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C2F004-2566-4628-9181-F89E8880F22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D36E52B-FD97-4C00-81E7-02ED93FE8A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38355" yWindow="1665" windowWidth="16830" windowHeight="18600" xr2:uid="{2FEF3363-4465-4989-BF7C-F52FAEE4F4FE}"/>
+    <workbookView xWindow="-49590" yWindow="1995" windowWidth="18960" windowHeight="18600" xr2:uid="{2FEF3363-4465-4989-BF7C-F52FAEE4F4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="과정리스트" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="538">
   <si>
     <t>정규강좌, 테마강좌 과정리스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1658,6 +1658,10 @@
   </si>
   <si>
     <t xml:space="preserve"> NCS 직업기초능력평가 - 자기개발능력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1737,7 +1741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1769,13 +1773,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1805,6 +1820,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2120,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF99B2D-97EC-4985-BFDD-3C4683471FF1}">
-  <dimension ref="B1:F477"/>
+  <dimension ref="B1:G477"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E436" sqref="E436"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3191,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="4" t="s">
         <v>444</v>
       </c>
@@ -3208,7 +3226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="4" t="s">
         <v>444</v>
       </c>
@@ -3225,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="4" t="s">
         <v>444</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="4" t="s">
         <v>444</v>
       </c>
@@ -3259,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="4" t="s">
         <v>444</v>
       </c>
@@ -3276,7 +3294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="4" t="s">
         <v>7</v>
       </c>
@@ -3286,14 +3304,14 @@
       <c r="D70" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="8" t="s">
         <v>56</v>
       </c>
       <c r="F70" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="4" t="s">
         <v>7</v>
       </c>
@@ -3303,14 +3321,14 @@
       <c r="D71" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F71" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
@@ -3320,14 +3338,14 @@
       <c r="D72" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="8" t="s">
         <v>75</v>
       </c>
       <c r="F72" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B73" s="4" t="s">
         <v>7</v>
       </c>
@@ -3343,8 +3361,11 @@
       <c r="F73" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G73" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B74" s="4" t="s">
         <v>7</v>
       </c>
@@ -3360,8 +3381,11 @@
       <c r="F74" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G74" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
@@ -3371,14 +3395,14 @@
       <c r="D75" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="8" t="s">
         <v>115</v>
       </c>
       <c r="F75" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B76" s="4" t="s">
         <v>7</v>
       </c>
@@ -3388,14 +3412,14 @@
       <c r="D76" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="8" t="s">
         <v>139</v>
       </c>
       <c r="F76" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B77" s="4" t="s">
         <v>7</v>
       </c>
@@ -3405,14 +3429,14 @@
       <c r="D77" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="8" t="s">
         <v>140</v>
       </c>
       <c r="F77" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B78" s="4" t="s">
         <v>7</v>
       </c>
@@ -3422,14 +3446,14 @@
       <c r="D78" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="8" t="s">
         <v>182</v>
       </c>
       <c r="F78" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B79" s="4" t="s">
         <v>7</v>
       </c>
@@ -3439,14 +3463,14 @@
       <c r="D79" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="8" t="s">
         <v>184</v>
       </c>
       <c r="F79" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B80" s="4" t="s">
         <v>7</v>
       </c>
@@ -3473,7 +3497,7 @@
       <c r="D81" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="8" t="s">
         <v>219</v>
       </c>
       <c r="F81" s="4">
@@ -3490,7 +3514,7 @@
       <c r="D82" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="8" t="s">
         <v>230</v>
       </c>
       <c r="F82" s="4">
@@ -3507,7 +3531,7 @@
       <c r="D83" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="8" t="s">
         <v>233</v>
       </c>
       <c r="F83" s="4">
@@ -3524,7 +3548,7 @@
       <c r="D84" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="8" t="s">
         <v>234</v>
       </c>
       <c r="F84" s="4">
@@ -3541,7 +3565,7 @@
       <c r="D85" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="8" t="s">
         <v>237</v>
       </c>
       <c r="F85" s="4">
@@ -3558,7 +3582,7 @@
       <c r="D86" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="8" t="s">
         <v>238</v>
       </c>
       <c r="F86" s="4">
@@ -3592,7 +3616,7 @@
       <c r="D88" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="8" t="s">
         <v>250</v>
       </c>
       <c r="F88" s="4">
@@ -3609,7 +3633,7 @@
       <c r="D89" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="8" t="s">
         <v>255</v>
       </c>
       <c r="F89" s="4">
